--- a/최종발표/최종보고서.xlsx
+++ b/최종발표/최종보고서.xlsx
@@ -8,26 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyCinema\최종발표\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A92893-D3FE-4730-9856-C9158D66E0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C6A50B-5C0D-4701-960B-0EC417C4A513}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1.개발환경" sheetId="1" r:id="rId1"/>
     <sheet name="2.역할분담" sheetId="2" r:id="rId2"/>
     <sheet name="3.UI시나리오" sheetId="3" r:id="rId3"/>
-    <sheet name="6.관계정의서" sheetId="6" r:id="rId4"/>
-    <sheet name="8.주식별자,보조식별자,외부식별자" sheetId="7" r:id="rId5"/>
-    <sheet name="12.속성취합" sheetId="8" r:id="rId6"/>
-    <sheet name="12.유일속성음절분리" sheetId="9" r:id="rId7"/>
-    <sheet name="12.용어정의" sheetId="10" r:id="rId8"/>
-    <sheet name="13.테이블이름정의" sheetId="11" r:id="rId9"/>
-    <sheet name="15.도메인정의" sheetId="12" r:id="rId10"/>
-    <sheet name="16.속성규칙정의" sheetId="13" r:id="rId11"/>
-    <sheet name="18.참조무결성" sheetId="14" r:id="rId12"/>
-    <sheet name="19.CRUD" sheetId="15" r:id="rId13"/>
-    <sheet name="20.인덱스정의" sheetId="16" r:id="rId14"/>
-    <sheet name="21.SQL질의" sheetId="17" r:id="rId15"/>
+    <sheet name="8.주식별자,보조식별자,외부식별자" sheetId="7" r:id="rId4"/>
+    <sheet name="13.테이블이름정의" sheetId="11" r:id="rId5"/>
+    <sheet name="15.도메인정의" sheetId="12" r:id="rId6"/>
+    <sheet name="16.속성규칙정의" sheetId="13" r:id="rId7"/>
+    <sheet name="18.참조무결성" sheetId="14" r:id="rId8"/>
+    <sheet name="19.CRUD" sheetId="15" r:id="rId9"/>
+    <sheet name="20.인덱스정의" sheetId="16" r:id="rId10"/>
+    <sheet name="21.SQL질의" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="70">
   <si>
     <t>환경</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,22 +98,6 @@
   </si>
   <si>
     <t>테스트 접수 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관계형태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>참여방법</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>관계 엔티티타입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기준 엔티티타입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,7 +116,212 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관계 대상</t>
+    <t>엔티티타입명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주식별자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보조식별자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부식별자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화일정정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화인기정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>배우정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>본인인증</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>비회원정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>최애장르정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영방식</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영일정</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>관객방식</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매좌석정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>신용카드정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>무통장입금정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷결제정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제내역정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트내역정보</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임시아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자_식별아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보_아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식별문자, 영화관_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관_식별문자, 상영방식_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방식_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매_식별문자, 결제방식_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제_식별문자, 사용자_식별아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보_아이디, 결제_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트_식별문자, 회원정보_아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관_식별문자, 상영관_식별문자, 영화_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌석문자, 영화관_식별문자,
+상영관_식별문자, 상영일정_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관_식별문자,
+상영관_식별문자, 상영일정_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매_식별문자, 좌석_좌석문자,영화관_식별문자,
+상영관_식별문자, 상영일정_식별문자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매_식별문자, 좌석_좌석문자, 영화관_식별문자,
+상영관_식별문자, 상영일정_식별문자,
+관객방식_식별문자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +368,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,7 +405,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -223,10 +414,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -665,64 +858,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6360FFE8-CD03-4806-B9F2-C97E40924C77}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9A79A2-7AE2-4B6F-9671-3BD38212DD11}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6E37F4-C9DB-42DA-8BEA-5F2671C8191D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648D8D0E-A112-4125-94FF-4B4BF743AE3A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C02A6895-7683-4C9D-97C6-CC931D9200F5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -741,7 +876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23499B22-FD95-4A70-92E1-5B1C7649C5C2}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -777,27 +912,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="35" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
+      <c r="B2" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="35" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>21</v>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="35" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>22</v>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.5" x14ac:dyDescent="0.45">
@@ -861,15 +996,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="2" width="50.58203125" style="5" customWidth="1"/>
-    <col min="3" max="16384" width="8.6640625" style="5"/>
+    <col min="1" max="2" width="50.58203125" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.6640625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -881,72 +1016,376 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F2B1034-9E7C-4F8E-8CEB-55F7FE1023DD}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B21EA97-3742-4834-8AF3-3E9F13AF04DD}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.58203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="30.58203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.6640625" style="4"/>
+    <col min="1" max="1" width="15.58203125" customWidth="1"/>
+    <col min="2" max="2" width="45.58203125" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" customWidth="1"/>
+    <col min="4" max="4" width="45.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="B2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="35" x14ac:dyDescent="0.45">
+      <c r="A17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" ht="52.5" x14ac:dyDescent="0.45">
+      <c r="A20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A22" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A25" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A28" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B2:D2"/>
-  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F474A6-51A0-4BC8-B761-C1F1A1CCAD73}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B21EA97-3742-4834-8AF3-3E9F13AF04DD}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6360FFE8-CD03-4806-B9F2-C97E40924C77}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9A79A2-7AE2-4B6F-9671-3BD38212DD11}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -958,8 +1397,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617909A8-84D8-431D-91FB-005103FFD9D8}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6E37F4-C9DB-42DA-8BEA-5F2671C8191D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -971,37 +1410,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182E4BC4-A56E-4895-8ABD-FE537DC44B45}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B2F0C7-F0AC-482B-AD1F-A6C95A219720}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F474A6-51A0-4BC8-B761-C1F1A1CCAD73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648D8D0E-A112-4125-94FF-4B4BF743AE3A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
